--- a/test/quiz.xlsx
+++ b/test/quiz.xlsx
@@ -11,26 +11,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>question1</t>
-  </si>
-  <si>
-    <t>answer1</t>
-  </si>
-  <si>
-    <t>question2</t>
-  </si>
-  <si>
-    <t>answer2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>საქართველოს კონსტიტუციით, რა არის ბრალდებულის წინასწარი პატიმრობის მაქსიმალური ვადა?</t>
+  </si>
+  <si>
+    <t>ა</t>
+  </si>
+  <si>
+    <t>21 დღე;</t>
+  </si>
+  <si>
+    <t>ბ</t>
+  </si>
+  <si>
+    <t>6 თვე;</t>
+  </si>
+  <si>
+    <t>გ</t>
+  </si>
+  <si>
+    <t>2 წელიწადი;</t>
+  </si>
+  <si>
+    <t>დ</t>
+  </si>
+  <si>
+    <t>9 თვე.</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>beta საქართველოს კონსტიტუციით, რა არის ბრალდებულის წინასწარი პატიმრობის მაქსიმალური ვადა?</t>
+  </si>
+  <si>
+    <t>Beta 21 დღე;</t>
+  </si>
+  <si>
+    <t>beta 6 თვე;</t>
+  </si>
+  <si>
+    <t>beta 2 წელიწადი;</t>
+  </si>
+  <si>
+    <t>beta 9 თვე.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -57,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyFont="1" fontId="0"/>
+    <xf applyFont="1" fontId="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -68,26 +112,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="0" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -96,6 +134,72 @@
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test/quiz.xlsx
+++ b/test/quiz.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>21</t>
   </si>
@@ -22,43 +22,37 @@
     <t>ა</t>
   </si>
   <si>
-    <t>21 დღე;</t>
+    <t>21 დღე</t>
   </si>
   <si>
     <t>ბ</t>
   </si>
   <si>
-    <t>6 თვე;</t>
+    <t>6 თვე</t>
   </si>
   <si>
     <t>გ</t>
   </si>
   <si>
-    <t>2 წელიწადი;</t>
-  </si>
-  <si>
-    <t>დ</t>
-  </si>
-  <si>
-    <t>9 თვე.</t>
+    <t>2 წელიწადი</t>
+  </si>
+  <si>
+    <t>ზ</t>
+  </si>
+  <si>
+    <t>ასდასდ</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>beta საქართველოს კონსტიტუციით, რა არის ბრალდებულის წინასწარი პატიმრობის მაქსიმალური ვადა?</t>
-  </si>
-  <si>
-    <t>Beta 21 დღე;</t>
-  </si>
-  <si>
-    <t>beta 6 თვე;</t>
-  </si>
-  <si>
-    <t>beta 2 წელიწადი;</t>
-  </si>
-  <si>
-    <t>beta 9 თვე.</t>
+    <t>შეკითხვა. ქწებ. ასდგ. ზხცდ.?</t>
+  </si>
+  <si>
+    <t>სიტყვა და სიტყვა</t>
+  </si>
+  <si>
+    <t>იყო და არა იყო რა</t>
   </si>
 </sst>
 </file>
@@ -153,7 +147,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -179,7 +173,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -187,11 +181,11 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -199,7 +193,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test/quiz.xlsx
+++ b/test/quiz.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>21</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>2 წელიწადი</t>
+  </si>
+  <si>
+    <t>დ</t>
+  </si>
+  <si>
+    <t>9 თვე</t>
   </si>
   <si>
     <t>ზ</t>
@@ -106,7 +112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -147,53 +153,69 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/test/quiz.xlsx
+++ b/test/quiz.xlsx
@@ -55,7 +55,7 @@
     <t>შეკითხვა. ქწებ. ასდგ. ზხცდ.?</t>
   </si>
   <si>
-    <t>სიტყვა და სიტყვა</t>
+    <t>სიტყვა  და სიტყვა</t>
   </si>
   <si>
     <t>იყო და არა იყო რა</t>
